--- a/tut06/output/2001CB11.xlsx
+++ b/tut06/output/2001CB11.xlsx
@@ -516,7 +516,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -603,7 +603,9 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -646,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -689,7 +691,9 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -710,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -775,7 +779,9 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -884,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -905,7 +911,9 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
